--- a/data/Draft Recap Supersites, Precincts & Chairs .xlsx
+++ b/data/Draft Recap Supersites, Precincts & Chairs .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bocodems.sharepoint.com/sites/Caucus/Shared Documents/General/2024/Supersites/SuperSite Locations Chairs, CoChairs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89AF204F-7277-4D6E-9EF3-DCD8288AC5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08176C8C-D7D3-4D2B-B716-0F704B2CED8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="8" xr2:uid="{340AA3D7-698E-467D-B3E0-46F6F286F3C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{340AA3D7-698E-467D-B3E0-46F6F286F3C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Draft 1-2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -21,12 +21,19 @@
     <sheet name="Draft 1-8" sheetId="7" state="hidden" r:id="rId6"/>
     <sheet name="Draft 1-13" sheetId="8" state="hidden" r:id="rId7"/>
     <sheet name="Draft 1-14" sheetId="9" state="hidden" r:id="rId8"/>
-    <sheet name="Draft 1-19" sheetId="10" r:id="rId9"/>
+    <sheet name="Draft 1-19" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="Draft 1-20" sheetId="11" state="hidden" r:id="rId10"/>
+    <sheet name="dRAFT 1-20 a" sheetId="12" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Draft 1-13'!$A$4:$HE$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Draft 1-19'!$A$4:$HE$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Draft 1-2'!$A$8:$HC$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Draft 1-20'!$A$4:$HE$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'dRAFT 1-20 a'!$A$4:$GX$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Draft 1-5'!$A$7:$HM$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Draft 1-6'!$A$4:$W$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Draft 1-8'!$A$4:$HI$24</definedName>
@@ -35,6 +42,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'Draft 1-13'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'Draft 1-19'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Draft 1-2'!$A:$D,'Draft 1-2'!$8:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">'Draft 1-20'!$A:$A,'Draft 1-20'!$4:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">'dRAFT 1-20 a'!$A:$A,'dRAFT 1-20 a'!$4:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'Draft 1-6'!$4:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Draft Jan-3'!$7:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Draft jan-4'!$7:$7</definedName>
@@ -60,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="330">
   <si>
     <t xml:space="preserve">Allenspark Fire Station </t>
   </si>
@@ -1009,6 +1018,48 @@
   <si>
     <t>3,100,101,102,103,104,105,106,,,,,,,,,,,,</t>
   </si>
+  <si>
+    <t>Recap as of 1/20/2024</t>
+  </si>
+  <si>
+    <t>503,504,505,506,507,508,509,510,800,801,802,808,809,819,,,,,,</t>
+  </si>
+  <si>
+    <t>Timm Bryson</t>
+  </si>
+  <si>
+    <t>7192515246</t>
+  </si>
+  <si>
+    <t>605,606,607,608,609,610,611,614,615,616,624,625,630,631,,,,,,</t>
+  </si>
+  <si>
+    <t>2,618,619,620,621,622,623,633,634,635,636,637,638,639,640,650,651,,,</t>
+  </si>
+  <si>
+    <t>Dalton Valette</t>
+  </si>
+  <si>
+    <t>3033788355</t>
+  </si>
+  <si>
+    <t>daltonvalette@gmail.com</t>
+  </si>
+  <si>
+    <t>@4pm</t>
+  </si>
+  <si>
+    <t>810,817,818,820,821,822,823,824,825,826,827,910,,,,,,,,</t>
+  </si>
+  <si>
+    <t>4,834,835,836,837,838,839,840,841,842,848,849,,,,,,,,</t>
+  </si>
+  <si>
+    <t>828,829,831,832,833,,,,,,,,,,,,,,,</t>
+  </si>
+  <si>
+    <t>830,843,844,845,846,847,850,851,852,853,854,855,856,857,900,906,,,,</t>
+  </si>
 </sst>
 </file>
 
@@ -1401,7 +1452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1615,6 +1666,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1629,7 +1692,147 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1771,6 +1974,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Supersite Working-AW"/>
+      <sheetName val="NGP Chairs CoChairs"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3739,12 +3957,12 @@
       <c r="GY4" s="36"/>
     </row>
     <row r="5" spans="1:211" ht="15.6">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="3"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
@@ -6355,6 +6573,5731 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241A2B32-3533-4CB6-ADDC-7B4E0FB893D3}">
+  <dimension ref="A1:HE28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="100" customWidth="1"/>
+    <col min="6" max="6" width="49" style="65" customWidth="1"/>
+    <col min="7" max="24" width="11.28515625" style="40" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="26" max="31" width="11.28515625" style="40" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" style="40" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="53" max="57" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="21.140625" hidden="1" customWidth="1"/>
+    <col min="59" max="64" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="82" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="94" width="14" bestFit="1" customWidth="1"/>
+    <col min="95" max="102" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="103" max="114" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="115" max="130" width="14" bestFit="1" customWidth="1"/>
+    <col min="131" max="135" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="147" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="148" max="160" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="161" max="166" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="167" max="179" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="180" max="194" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="195" max="213" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:213" ht="15.6">
+      <c r="A1" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="68">
+        <v>2.5000000000000005E-2</v>
+      </c>
+      <c r="E1" s="92">
+        <v>193</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="31"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AK1" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="32"/>
+      <c r="BB1" s="32"/>
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="32"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="4"/>
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4"/>
+      <c r="CM1" s="4"/>
+      <c r="CN1" s="4"/>
+      <c r="CO1" s="4"/>
+      <c r="CP1" s="4"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4"/>
+      <c r="CU1" s="4"/>
+      <c r="CV1" s="4"/>
+      <c r="CW1" s="4"/>
+      <c r="CX1" s="4"/>
+      <c r="CY1" s="4"/>
+      <c r="CZ1" s="4"/>
+      <c r="DA1" s="4"/>
+      <c r="DB1" s="4"/>
+      <c r="DC1" s="4"/>
+      <c r="DD1" s="4"/>
+      <c r="DE1" s="4"/>
+      <c r="DF1" s="4"/>
+      <c r="DG1" s="4"/>
+      <c r="DH1" s="4"/>
+      <c r="DI1" s="4"/>
+      <c r="DJ1" s="4"/>
+      <c r="DK1" s="33"/>
+      <c r="DL1" s="33"/>
+      <c r="DM1" s="33"/>
+      <c r="DN1" s="33"/>
+      <c r="DO1" s="33"/>
+      <c r="DP1" s="33"/>
+      <c r="DQ1" s="33"/>
+      <c r="DR1" s="33"/>
+      <c r="DS1" s="33"/>
+      <c r="DT1" s="33"/>
+      <c r="DU1" s="33"/>
+      <c r="DV1" s="33"/>
+      <c r="DW1" s="33"/>
+      <c r="DX1" s="33"/>
+      <c r="DY1" s="33"/>
+      <c r="DZ1" s="33"/>
+      <c r="EA1" s="34"/>
+      <c r="EB1" s="34"/>
+      <c r="EC1" s="34"/>
+      <c r="ED1" s="34"/>
+      <c r="EE1" s="34"/>
+      <c r="EF1" s="4"/>
+      <c r="EG1" s="4"/>
+      <c r="EH1" s="4"/>
+      <c r="EI1" s="4"/>
+      <c r="EJ1" s="4"/>
+      <c r="EK1" s="4"/>
+      <c r="EL1" s="4"/>
+      <c r="EM1" s="4"/>
+      <c r="EN1" s="4"/>
+      <c r="EO1" s="4"/>
+      <c r="EP1" s="4"/>
+      <c r="EQ1" s="4"/>
+      <c r="ER1" s="4"/>
+      <c r="ES1" s="4"/>
+      <c r="ET1" s="4"/>
+      <c r="EU1" s="4"/>
+      <c r="EV1" s="4"/>
+      <c r="EW1" s="4"/>
+      <c r="EX1" s="4"/>
+      <c r="EY1" s="4"/>
+      <c r="EZ1" s="4"/>
+      <c r="FA1" s="4"/>
+      <c r="FB1" s="4"/>
+      <c r="FC1" s="4"/>
+      <c r="FD1" s="4"/>
+      <c r="FE1" s="4"/>
+      <c r="FF1" s="4"/>
+      <c r="FG1" s="4"/>
+      <c r="FH1" s="4"/>
+      <c r="FI1" s="4"/>
+      <c r="FJ1" s="4"/>
+      <c r="FK1" s="35"/>
+      <c r="FL1" s="35"/>
+      <c r="FM1" s="35"/>
+      <c r="FN1" s="35"/>
+      <c r="FO1" s="35"/>
+      <c r="FP1" s="35"/>
+      <c r="FQ1" s="35"/>
+      <c r="FR1" s="35"/>
+      <c r="FS1" s="35"/>
+      <c r="FT1" s="35"/>
+      <c r="FU1" s="35"/>
+      <c r="FV1" s="35"/>
+      <c r="FW1" s="35"/>
+      <c r="FX1" s="4"/>
+      <c r="FY1" s="4"/>
+      <c r="FZ1" s="4"/>
+      <c r="GA1" s="4"/>
+      <c r="GB1" s="4"/>
+      <c r="GC1" s="4"/>
+      <c r="GD1" s="4"/>
+      <c r="GE1" s="4"/>
+      <c r="GF1" s="4"/>
+      <c r="GG1" s="4"/>
+      <c r="GH1" s="4"/>
+      <c r="GI1" s="4"/>
+      <c r="GJ1" s="4"/>
+      <c r="GK1" s="4"/>
+      <c r="GL1" s="4"/>
+      <c r="GM1" s="36"/>
+      <c r="GN1" s="36"/>
+      <c r="GO1" s="36"/>
+      <c r="GP1" s="36"/>
+      <c r="GQ1" s="36"/>
+      <c r="GR1" s="36"/>
+      <c r="GS1" s="36"/>
+      <c r="GT1" s="36"/>
+      <c r="GU1" s="36"/>
+      <c r="GV1" s="36"/>
+      <c r="GW1" s="36"/>
+      <c r="GX1" s="36"/>
+      <c r="GY1" s="36"/>
+      <c r="GZ1" s="36"/>
+      <c r="HA1" s="36"/>
+      <c r="HB1" s="36"/>
+      <c r="HC1" s="36"/>
+      <c r="HD1" s="36"/>
+      <c r="HE1" s="36"/>
+    </row>
+    <row r="2" spans="1:213" ht="15.6">
+      <c r="A2" s="39">
+        <v>20</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="53">
+        <v>100005</v>
+      </c>
+      <c r="D2" s="53">
+        <v>2500.1250000000005</v>
+      </c>
+      <c r="E2" s="92">
+        <v>193</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4">
+        <v>17</v>
+      </c>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4">
+        <v>17</v>
+      </c>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4">
+        <v>4</v>
+      </c>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="4"/>
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="4"/>
+      <c r="CY2" s="4"/>
+      <c r="CZ2" s="4"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DH2" s="4"/>
+      <c r="DI2" s="4"/>
+      <c r="DJ2" s="4"/>
+      <c r="DK2" s="33"/>
+      <c r="DL2" s="33"/>
+      <c r="DM2" s="33"/>
+      <c r="DN2" s="33"/>
+      <c r="DO2" s="33"/>
+      <c r="DP2" s="33"/>
+      <c r="DQ2" s="33"/>
+      <c r="DR2" s="33"/>
+      <c r="DS2" s="33"/>
+      <c r="DT2" s="33"/>
+      <c r="DU2" s="33"/>
+      <c r="DV2" s="33"/>
+      <c r="DW2" s="33"/>
+      <c r="DX2" s="33"/>
+      <c r="DY2" s="33"/>
+      <c r="DZ2" s="33"/>
+      <c r="EA2" s="34"/>
+      <c r="EB2" s="34"/>
+      <c r="EC2" s="34"/>
+      <c r="ED2" s="34"/>
+      <c r="EE2" s="34"/>
+      <c r="EF2" s="4"/>
+      <c r="EG2" s="4"/>
+      <c r="EH2" s="4"/>
+      <c r="EI2" s="4"/>
+      <c r="EJ2" s="4"/>
+      <c r="EK2" s="4"/>
+      <c r="EL2" s="4"/>
+      <c r="EM2" s="4"/>
+      <c r="EN2" s="4"/>
+      <c r="EO2" s="4"/>
+      <c r="EP2" s="4"/>
+      <c r="EQ2" s="4"/>
+      <c r="ER2" s="4"/>
+      <c r="ES2" s="4"/>
+      <c r="ET2" s="4"/>
+      <c r="EU2" s="4"/>
+      <c r="EV2" s="4"/>
+      <c r="EW2" s="4"/>
+      <c r="EX2" s="4"/>
+      <c r="EY2" s="4"/>
+      <c r="EZ2" s="4"/>
+      <c r="FA2" s="4"/>
+      <c r="FB2" s="4"/>
+      <c r="FC2" s="4"/>
+      <c r="FD2" s="4"/>
+      <c r="FE2" s="4"/>
+      <c r="FF2" s="4"/>
+      <c r="FG2" s="4"/>
+      <c r="FH2" s="4"/>
+      <c r="FI2" s="4"/>
+      <c r="FJ2" s="4"/>
+      <c r="FK2" s="35"/>
+      <c r="FL2" s="35"/>
+      <c r="FM2" s="35"/>
+      <c r="FN2" s="35"/>
+      <c r="FO2" s="35"/>
+      <c r="FP2" s="35"/>
+      <c r="FQ2" s="35"/>
+      <c r="FR2" s="35"/>
+      <c r="FS2" s="35"/>
+      <c r="FT2" s="35"/>
+      <c r="FU2" s="35"/>
+      <c r="FV2" s="35"/>
+      <c r="FW2" s="35"/>
+      <c r="FX2" s="4"/>
+      <c r="FY2" s="4"/>
+      <c r="FZ2" s="4"/>
+      <c r="GA2" s="4"/>
+      <c r="GB2" s="4"/>
+      <c r="GC2" s="4"/>
+      <c r="GD2" s="4"/>
+      <c r="GE2" s="4"/>
+      <c r="GF2" s="4"/>
+      <c r="GG2" s="4"/>
+      <c r="GH2" s="4"/>
+      <c r="GI2" s="4"/>
+      <c r="GJ2" s="4"/>
+      <c r="GK2" s="4"/>
+      <c r="GL2" s="4"/>
+      <c r="GM2" s="36"/>
+      <c r="GN2" s="36"/>
+      <c r="GO2" s="36"/>
+      <c r="GP2" s="36"/>
+      <c r="GQ2" s="36"/>
+      <c r="GR2" s="36"/>
+      <c r="GS2" s="36"/>
+      <c r="GT2" s="36"/>
+      <c r="GU2" s="36"/>
+      <c r="GV2" s="36"/>
+      <c r="GW2" s="36"/>
+      <c r="GX2" s="36"/>
+      <c r="GY2" s="36"/>
+      <c r="GZ2" s="36"/>
+      <c r="HA2" s="36"/>
+      <c r="HB2" s="36"/>
+      <c r="HC2" s="36"/>
+      <c r="HD2" s="36"/>
+      <c r="HE2" s="36"/>
+    </row>
+    <row r="3" spans="1:213" ht="15.6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="30">
+        <v>1</v>
+      </c>
+      <c r="H3" s="30">
+        <v>2</v>
+      </c>
+      <c r="I3" s="30">
+        <v>3</v>
+      </c>
+      <c r="J3" s="30">
+        <v>4</v>
+      </c>
+      <c r="K3" s="30">
+        <v>5</v>
+      </c>
+      <c r="L3" s="30">
+        <v>6</v>
+      </c>
+      <c r="M3" s="30">
+        <v>7</v>
+      </c>
+      <c r="N3" s="30">
+        <v>8</v>
+      </c>
+      <c r="O3" s="30">
+        <v>9</v>
+      </c>
+      <c r="P3" s="30">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="30">
+        <v>11</v>
+      </c>
+      <c r="R3" s="30">
+        <v>12</v>
+      </c>
+      <c r="S3" s="30">
+        <v>13</v>
+      </c>
+      <c r="T3" s="30">
+        <v>14</v>
+      </c>
+      <c r="U3" s="30">
+        <v>15</v>
+      </c>
+      <c r="V3" s="30">
+        <v>16</v>
+      </c>
+      <c r="W3" s="30">
+        <v>17</v>
+      </c>
+      <c r="X3" s="30">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="30">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="30">
+        <v>21</v>
+      </c>
+      <c r="AB3" s="30">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="30">
+        <v>23</v>
+      </c>
+      <c r="AD3" s="30">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="30">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="99">
+        <v>49</v>
+      </c>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="4"/>
+      <c r="CB3" s="4"/>
+      <c r="CC3" s="4"/>
+      <c r="CD3" s="4"/>
+      <c r="CE3" s="4"/>
+      <c r="CF3" s="4"/>
+      <c r="CG3" s="4"/>
+      <c r="CH3" s="4"/>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="4"/>
+      <c r="CM3" s="4"/>
+      <c r="CN3" s="4"/>
+      <c r="CO3" s="4"/>
+      <c r="CP3" s="4"/>
+      <c r="CQ3" s="4"/>
+      <c r="CR3" s="4"/>
+      <c r="CS3" s="4"/>
+      <c r="CT3" s="4"/>
+      <c r="CU3" s="4"/>
+      <c r="CV3" s="4"/>
+      <c r="CW3" s="4"/>
+      <c r="CX3" s="4"/>
+      <c r="CY3" s="4"/>
+      <c r="CZ3" s="4"/>
+      <c r="DA3" s="4"/>
+      <c r="DB3" s="4"/>
+      <c r="DC3" s="4"/>
+      <c r="DD3" s="4"/>
+      <c r="DE3" s="4"/>
+      <c r="DF3" s="4"/>
+      <c r="DG3" s="4"/>
+      <c r="DH3" s="4"/>
+      <c r="DI3" s="4"/>
+      <c r="DJ3" s="4"/>
+      <c r="DK3" s="33"/>
+      <c r="DL3" s="33"/>
+      <c r="DM3" s="33"/>
+      <c r="DN3" s="33"/>
+      <c r="DO3" s="33"/>
+      <c r="DP3" s="33"/>
+      <c r="DQ3" s="33"/>
+      <c r="DR3" s="33"/>
+      <c r="DS3" s="33"/>
+      <c r="DT3" s="33"/>
+      <c r="DU3" s="33"/>
+      <c r="DV3" s="33"/>
+      <c r="DW3" s="33"/>
+      <c r="DX3" s="33"/>
+      <c r="DY3" s="33"/>
+      <c r="DZ3" s="33"/>
+      <c r="EA3" s="34"/>
+      <c r="EB3" s="34"/>
+      <c r="EC3" s="34"/>
+      <c r="ED3" s="34"/>
+      <c r="EE3" s="34"/>
+      <c r="EF3" s="4"/>
+      <c r="EG3" s="4"/>
+      <c r="EH3" s="4"/>
+      <c r="EI3" s="4"/>
+      <c r="EJ3" s="4"/>
+      <c r="EK3" s="4"/>
+      <c r="EL3" s="4"/>
+      <c r="EM3" s="4"/>
+      <c r="EN3" s="4"/>
+      <c r="EO3" s="4"/>
+      <c r="EP3" s="4"/>
+      <c r="EQ3" s="4"/>
+      <c r="ER3" s="4"/>
+      <c r="ES3" s="4"/>
+      <c r="ET3" s="4"/>
+      <c r="EU3" s="4"/>
+      <c r="EV3" s="4"/>
+      <c r="EW3" s="4"/>
+      <c r="EX3" s="4"/>
+      <c r="EY3" s="4"/>
+      <c r="EZ3" s="4"/>
+      <c r="FA3" s="4"/>
+      <c r="FB3" s="4"/>
+      <c r="FC3" s="4"/>
+      <c r="FD3" s="4"/>
+      <c r="FE3" s="4"/>
+      <c r="FF3" s="4"/>
+      <c r="FG3" s="4"/>
+      <c r="FH3" s="4"/>
+      <c r="FI3" s="4"/>
+      <c r="FJ3" s="4"/>
+      <c r="FK3" s="35"/>
+      <c r="FL3" s="35"/>
+      <c r="FM3" s="35"/>
+      <c r="FN3" s="35"/>
+      <c r="FO3" s="35"/>
+      <c r="FP3" s="35"/>
+      <c r="FQ3" s="35"/>
+      <c r="FR3" s="35"/>
+      <c r="FS3" s="35"/>
+      <c r="FT3" s="35"/>
+      <c r="FU3" s="35"/>
+      <c r="FV3" s="35"/>
+      <c r="FW3" s="35"/>
+      <c r="FX3" s="4"/>
+      <c r="FY3" s="4"/>
+      <c r="FZ3" s="4"/>
+      <c r="GA3" s="4"/>
+      <c r="GB3" s="4"/>
+      <c r="GC3" s="4"/>
+      <c r="GD3" s="4"/>
+      <c r="GE3" s="4"/>
+      <c r="GF3" s="4"/>
+      <c r="GG3" s="4"/>
+      <c r="GH3" s="4"/>
+      <c r="GI3" s="4"/>
+      <c r="GJ3" s="4"/>
+      <c r="GK3" s="4"/>
+      <c r="GL3" s="4"/>
+      <c r="GM3" s="36"/>
+      <c r="GN3" s="36"/>
+      <c r="GO3" s="36"/>
+      <c r="GP3" s="36"/>
+      <c r="GQ3" s="36"/>
+      <c r="GR3" s="36"/>
+      <c r="GS3" s="36"/>
+      <c r="GT3" s="36"/>
+      <c r="GU3" s="36"/>
+      <c r="GV3" s="36"/>
+      <c r="GW3" s="36"/>
+      <c r="GX3" s="36"/>
+      <c r="GY3" s="36"/>
+      <c r="GZ3" s="36"/>
+      <c r="HA3" s="36"/>
+      <c r="HB3" s="36"/>
+      <c r="HC3" s="36"/>
+      <c r="HD3" s="36"/>
+      <c r="HE3" s="36"/>
+    </row>
+    <row r="4" spans="1:213" s="41" customFormat="1" ht="46.5">
+      <c r="A4" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF4" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ4" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK4" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL4" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN4" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO4" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR4" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW4" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX4" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB4" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC4" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE4" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:213">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="58">
+        <v>4696</v>
+      </c>
+      <c r="D5" s="58">
+        <v>117.4</v>
+      </c>
+      <c r="E5" s="100">
+        <v>7</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="40">
+        <v>822</v>
+      </c>
+      <c r="H5" s="40">
+        <v>823</v>
+      </c>
+      <c r="I5" s="40">
+        <v>824</v>
+      </c>
+      <c r="J5" s="40">
+        <v>825</v>
+      </c>
+      <c r="K5" s="40">
+        <v>826</v>
+      </c>
+      <c r="L5" s="40">
+        <v>827</v>
+      </c>
+      <c r="M5" s="40">
+        <v>910</v>
+      </c>
+      <c r="AF5" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>118591584</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK5">
+        <v>147521014</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:213">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="58">
+        <v>8884</v>
+      </c>
+      <c r="D6" s="58">
+        <v>222.10000000000002</v>
+      </c>
+      <c r="E6" s="100">
+        <v>13</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="40">
+        <v>803</v>
+      </c>
+      <c r="H6" s="40">
+        <v>804</v>
+      </c>
+      <c r="I6" s="40">
+        <v>805</v>
+      </c>
+      <c r="J6" s="40">
+        <v>806</v>
+      </c>
+      <c r="K6" s="40">
+        <v>807</v>
+      </c>
+      <c r="L6" s="40">
+        <v>811</v>
+      </c>
+      <c r="M6" s="40">
+        <v>812</v>
+      </c>
+      <c r="N6" s="40">
+        <v>813</v>
+      </c>
+      <c r="O6" s="40">
+        <v>814</v>
+      </c>
+      <c r="P6" s="40">
+        <v>815</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>816</v>
+      </c>
+      <c r="R6" s="40">
+        <v>911</v>
+      </c>
+      <c r="S6" s="40">
+        <v>912</v>
+      </c>
+      <c r="AF6" s="40">
+        <v>3</v>
+      </c>
+      <c r="AG6">
+        <v>107153029</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK6">
+        <v>107152549</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6">
+        <v>107152440</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:213" ht="15.6">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="58">
+        <v>6193</v>
+      </c>
+      <c r="D7" s="58">
+        <v>154.82500000000002</v>
+      </c>
+      <c r="E7" s="100">
+        <v>13</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>834</v>
+      </c>
+      <c r="I7" s="4">
+        <v>835</v>
+      </c>
+      <c r="J7" s="4">
+        <v>836</v>
+      </c>
+      <c r="K7" s="4">
+        <v>837</v>
+      </c>
+      <c r="L7" s="4">
+        <v>838</v>
+      </c>
+      <c r="M7" s="4">
+        <v>839</v>
+      </c>
+      <c r="N7" s="4">
+        <v>840</v>
+      </c>
+      <c r="O7" s="4">
+        <v>841</v>
+      </c>
+      <c r="P7" s="4">
+        <v>842</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>848</v>
+      </c>
+      <c r="R7" s="4">
+        <v>849</v>
+      </c>
+      <c r="S7" s="4">
+        <v>900</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="AF7" s="40">
+        <v>4</v>
+      </c>
+      <c r="AG7">
+        <v>142893063</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK7">
+        <v>113627156</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO7">
+        <v>107152229</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS7">
+        <v>107152370</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:213">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="58">
+        <v>7241</v>
+      </c>
+      <c r="D8" s="58">
+        <v>181.02500000000003</v>
+      </c>
+      <c r="E8" s="100">
+        <v>10</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="40">
+        <v>810</v>
+      </c>
+      <c r="H8" s="40">
+        <v>817</v>
+      </c>
+      <c r="I8" s="40">
+        <v>818</v>
+      </c>
+      <c r="J8" s="40">
+        <v>820</v>
+      </c>
+      <c r="K8" s="40">
+        <v>821</v>
+      </c>
+      <c r="L8" s="40">
+        <v>828</v>
+      </c>
+      <c r="M8" s="40">
+        <v>829</v>
+      </c>
+      <c r="N8" s="40">
+        <v>831</v>
+      </c>
+      <c r="O8" s="40">
+        <v>832</v>
+      </c>
+      <c r="P8" s="40">
+        <v>833</v>
+      </c>
+      <c r="AF8" s="40">
+        <v>3</v>
+      </c>
+      <c r="AG8">
+        <v>147113970</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK8">
+        <v>107153071</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO8">
+        <v>107152870</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:213" ht="29.1">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="58">
+        <v>8756</v>
+      </c>
+      <c r="D9" s="58">
+        <v>218.9</v>
+      </c>
+      <c r="E9" s="100">
+        <v>15</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="G9" s="40">
+        <v>830</v>
+      </c>
+      <c r="H9" s="40">
+        <v>843</v>
+      </c>
+      <c r="I9" s="40">
+        <v>844</v>
+      </c>
+      <c r="J9" s="40">
+        <v>845</v>
+      </c>
+      <c r="K9" s="40">
+        <v>846</v>
+      </c>
+      <c r="L9" s="40">
+        <v>847</v>
+      </c>
+      <c r="M9" s="40">
+        <v>850</v>
+      </c>
+      <c r="N9" s="40">
+        <v>851</v>
+      </c>
+      <c r="O9" s="40">
+        <v>852</v>
+      </c>
+      <c r="P9" s="40">
+        <v>853</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>854</v>
+      </c>
+      <c r="R9" s="40">
+        <v>855</v>
+      </c>
+      <c r="S9" s="40">
+        <v>856</v>
+      </c>
+      <c r="T9" s="40">
+        <v>857</v>
+      </c>
+      <c r="U9" s="40">
+        <v>906</v>
+      </c>
+      <c r="AF9" s="40">
+        <v>4</v>
+      </c>
+      <c r="AG9">
+        <v>107152873</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK9">
+        <v>107152473</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO9">
+        <v>107152460</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS9">
+        <v>111658833</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>273</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>274</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
+      <c r="BC9">
+        <v>1</v>
+      </c>
+      <c r="BD9">
+        <v>1</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:213">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="58">
+        <v>3936</v>
+      </c>
+      <c r="D10" s="58">
+        <v>98.4</v>
+      </c>
+      <c r="E10" s="100">
+        <v>9</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" s="40">
+        <v>400</v>
+      </c>
+      <c r="H10" s="40">
+        <v>401</v>
+      </c>
+      <c r="I10" s="40">
+        <v>402</v>
+      </c>
+      <c r="J10" s="40">
+        <v>403</v>
+      </c>
+      <c r="K10" s="40">
+        <v>404</v>
+      </c>
+      <c r="L10" s="40">
+        <v>405</v>
+      </c>
+      <c r="M10" s="40">
+        <v>406</v>
+      </c>
+      <c r="N10" s="40">
+        <v>407</v>
+      </c>
+      <c r="O10" s="40">
+        <v>408</v>
+      </c>
+      <c r="AF10" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <v>107152500</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK10">
+        <v>144328289</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>277</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:213" ht="29.1">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="58">
+        <v>8719</v>
+      </c>
+      <c r="D11" s="58">
+        <v>217.97500000000005</v>
+      </c>
+      <c r="E11" s="100">
+        <v>14</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="40">
+        <v>503</v>
+      </c>
+      <c r="H11" s="40">
+        <v>504</v>
+      </c>
+      <c r="I11" s="40">
+        <v>505</v>
+      </c>
+      <c r="J11" s="40">
+        <v>506</v>
+      </c>
+      <c r="K11" s="40">
+        <v>507</v>
+      </c>
+      <c r="L11" s="40">
+        <v>508</v>
+      </c>
+      <c r="M11" s="40">
+        <v>509</v>
+      </c>
+      <c r="N11" s="40">
+        <v>510</v>
+      </c>
+      <c r="O11" s="40">
+        <v>800</v>
+      </c>
+      <c r="P11" s="40">
+        <v>801</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>802</v>
+      </c>
+      <c r="R11" s="40">
+        <v>808</v>
+      </c>
+      <c r="S11" s="40">
+        <v>809</v>
+      </c>
+      <c r="T11" s="40">
+        <v>819</v>
+      </c>
+      <c r="AF11" s="40">
+        <v>4</v>
+      </c>
+      <c r="AG11">
+        <v>107152131</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK11">
+        <v>114937506</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO11">
+        <v>122989657</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS11">
+        <v>107152262</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>318</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>319</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:213" ht="29.1">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="58">
+        <v>11327</v>
+      </c>
+      <c r="D12" s="58">
+        <v>283.17500000000001</v>
+      </c>
+      <c r="E12" s="100">
+        <v>20</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="40">
+        <v>300</v>
+      </c>
+      <c r="H12" s="40">
+        <v>301</v>
+      </c>
+      <c r="I12" s="40">
+        <v>302</v>
+      </c>
+      <c r="J12" s="40">
+        <v>303</v>
+      </c>
+      <c r="K12" s="40">
+        <v>304</v>
+      </c>
+      <c r="L12" s="40">
+        <v>305</v>
+      </c>
+      <c r="M12" s="40">
+        <v>306</v>
+      </c>
+      <c r="N12" s="40">
+        <v>307</v>
+      </c>
+      <c r="O12" s="40">
+        <v>308</v>
+      </c>
+      <c r="P12" s="40">
+        <v>309</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>310</v>
+      </c>
+      <c r="R12" s="40">
+        <v>311</v>
+      </c>
+      <c r="S12" s="40">
+        <v>312</v>
+      </c>
+      <c r="T12" s="40">
+        <v>313</v>
+      </c>
+      <c r="U12" s="40">
+        <v>314</v>
+      </c>
+      <c r="V12" s="40">
+        <v>315</v>
+      </c>
+      <c r="W12" s="40">
+        <v>316</v>
+      </c>
+      <c r="X12" s="40">
+        <v>500</v>
+      </c>
+      <c r="Y12" s="40">
+        <v>501</v>
+      </c>
+      <c r="Z12" s="40">
+        <v>502</v>
+      </c>
+      <c r="AF12" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>107152163</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:213" ht="29.1">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="58">
+        <v>7518</v>
+      </c>
+      <c r="D13" s="58">
+        <v>187.95000000000002</v>
+      </c>
+      <c r="E13" s="100">
+        <v>14</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="40">
+        <v>605</v>
+      </c>
+      <c r="H13" s="40">
+        <v>606</v>
+      </c>
+      <c r="I13" s="40">
+        <v>607</v>
+      </c>
+      <c r="J13" s="40">
+        <v>608</v>
+      </c>
+      <c r="K13" s="40">
+        <v>609</v>
+      </c>
+      <c r="L13" s="40">
+        <v>610</v>
+      </c>
+      <c r="M13" s="40">
+        <v>611</v>
+      </c>
+      <c r="N13" s="40">
+        <v>614</v>
+      </c>
+      <c r="O13" s="40">
+        <v>615</v>
+      </c>
+      <c r="P13" s="40">
+        <v>616</v>
+      </c>
+      <c r="Q13" s="40">
+        <v>624</v>
+      </c>
+      <c r="R13" s="40">
+        <v>625</v>
+      </c>
+      <c r="S13" s="40">
+        <v>630</v>
+      </c>
+      <c r="T13" s="40">
+        <v>631</v>
+      </c>
+      <c r="AF13" s="40">
+        <v>3</v>
+      </c>
+      <c r="AG13">
+        <v>107153150</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK13" s="64">
+        <v>107152750</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO13">
+        <v>107152594</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <v>1</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:213">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="58">
+        <v>3351</v>
+      </c>
+      <c r="D14" s="58">
+        <v>83.775000000000006</v>
+      </c>
+      <c r="E14" s="100">
+        <v>7</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="40">
+        <v>600</v>
+      </c>
+      <c r="H14" s="40">
+        <v>601</v>
+      </c>
+      <c r="I14" s="40">
+        <v>602</v>
+      </c>
+      <c r="J14" s="40">
+        <v>603</v>
+      </c>
+      <c r="K14" s="40">
+        <v>604</v>
+      </c>
+      <c r="L14" s="40">
+        <v>612</v>
+      </c>
+      <c r="M14" s="40">
+        <v>613</v>
+      </c>
+      <c r="AF14" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG14">
+        <v>138232649</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK14">
+        <v>111502459</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>1</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:213" ht="29.1">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="58">
+        <v>6376</v>
+      </c>
+      <c r="D15" s="58">
+        <v>159.40000000000003</v>
+      </c>
+      <c r="E15" s="100">
+        <v>18</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" s="4">
+        <v>626</v>
+      </c>
+      <c r="H15" s="4">
+        <v>627</v>
+      </c>
+      <c r="I15" s="4">
+        <v>628</v>
+      </c>
+      <c r="J15" s="4">
+        <v>629</v>
+      </c>
+      <c r="K15" s="4">
+        <v>643</v>
+      </c>
+      <c r="L15" s="4">
+        <v>644</v>
+      </c>
+      <c r="M15" s="4">
+        <v>645</v>
+      </c>
+      <c r="N15" s="4">
+        <v>646</v>
+      </c>
+      <c r="O15" s="4">
+        <v>617</v>
+      </c>
+      <c r="P15" s="4">
+        <v>632</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>641</v>
+      </c>
+      <c r="R15" s="4">
+        <v>642</v>
+      </c>
+      <c r="S15" s="4">
+        <v>647</v>
+      </c>
+      <c r="T15" s="4">
+        <v>648</v>
+      </c>
+      <c r="U15" s="4">
+        <v>649</v>
+      </c>
+      <c r="V15" s="4">
+        <v>703</v>
+      </c>
+      <c r="W15" s="4">
+        <v>704</v>
+      </c>
+      <c r="X15" s="4">
+        <v>705</v>
+      </c>
+      <c r="AF15" s="40">
+        <v>4</v>
+      </c>
+      <c r="AG15">
+        <v>137032958</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK15">
+        <v>108682188</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO15">
+        <v>107153112</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS15">
+        <v>107152357</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>1</v>
+      </c>
+      <c r="BC15">
+        <v>1</v>
+      </c>
+      <c r="BD15">
+        <v>1</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:213" ht="29.1">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="58">
+        <v>7028</v>
+      </c>
+      <c r="D16" s="58">
+        <v>175.7</v>
+      </c>
+      <c r="E16" s="100">
+        <v>17</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>618</v>
+      </c>
+      <c r="I16" s="1">
+        <v>619</v>
+      </c>
+      <c r="J16" s="1">
+        <v>620</v>
+      </c>
+      <c r="K16" s="1">
+        <v>621</v>
+      </c>
+      <c r="L16" s="1">
+        <v>622</v>
+      </c>
+      <c r="M16" s="1">
+        <v>623</v>
+      </c>
+      <c r="N16" s="1">
+        <v>633</v>
+      </c>
+      <c r="O16" s="1">
+        <v>634</v>
+      </c>
+      <c r="P16" s="1">
+        <v>635</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>636</v>
+      </c>
+      <c r="R16" s="1">
+        <v>637</v>
+      </c>
+      <c r="S16" s="1">
+        <v>638</v>
+      </c>
+      <c r="T16" s="1">
+        <v>639</v>
+      </c>
+      <c r="U16" s="1">
+        <v>640</v>
+      </c>
+      <c r="V16" s="1">
+        <v>650</v>
+      </c>
+      <c r="W16" s="1">
+        <v>651</v>
+      </c>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="40">
+        <v>3</v>
+      </c>
+      <c r="AG16">
+        <v>107152803</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK16">
+        <v>107152783</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO16">
+        <v>107152290</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>1</v>
+      </c>
+      <c r="BC16">
+        <v>1</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="58">
+        <v>7185</v>
+      </c>
+      <c r="D17" s="58">
+        <v>179.62500000000003</v>
+      </c>
+      <c r="E17" s="100">
+        <v>13</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="40">
+        <v>200</v>
+      </c>
+      <c r="H17" s="40">
+        <v>201</v>
+      </c>
+      <c r="I17" s="40">
+        <v>202</v>
+      </c>
+      <c r="J17" s="40">
+        <v>203</v>
+      </c>
+      <c r="K17" s="40">
+        <v>204</v>
+      </c>
+      <c r="L17" s="40">
+        <v>205</v>
+      </c>
+      <c r="M17" s="40">
+        <v>206</v>
+      </c>
+      <c r="N17" s="40">
+        <v>207</v>
+      </c>
+      <c r="O17" s="40">
+        <v>208</v>
+      </c>
+      <c r="P17" s="40">
+        <v>209</v>
+      </c>
+      <c r="Q17" s="40">
+        <v>210</v>
+      </c>
+      <c r="R17" s="40">
+        <v>211</v>
+      </c>
+      <c r="S17" s="40">
+        <v>212</v>
+      </c>
+      <c r="AF17" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <v>107152695</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK17">
+        <v>107152704</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>285</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>286</v>
+      </c>
+      <c r="BA17">
+        <v>1</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="58">
+        <v>155</v>
+      </c>
+      <c r="D18" s="58">
+        <v>3.875</v>
+      </c>
+      <c r="E18" s="100">
+        <v>1</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="G18" s="40">
+        <v>914</v>
+      </c>
+      <c r="AF18" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG18">
+        <v>107152390</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK18">
+        <v>111658139</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>261</v>
+      </c>
+      <c r="BA18">
+        <v>1</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" ht="15.6">
+      <c r="A19" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="58">
+        <v>308</v>
+      </c>
+      <c r="D19" s="58">
+        <v>7.7</v>
+      </c>
+      <c r="E19" s="100">
+        <v>1</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="G19" s="40">
+        <v>909</v>
+      </c>
+      <c r="AF19" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>107152390</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA19">
+        <v>1</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57">
+      <c r="A20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="58">
+        <v>283</v>
+      </c>
+      <c r="D20" s="58">
+        <v>7.0750000000000002</v>
+      </c>
+      <c r="E20" s="100">
+        <v>1</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="G20" s="40">
+        <v>913</v>
+      </c>
+      <c r="AF20" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG20">
+        <v>107152390</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK20">
+        <v>122990310</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>288</v>
+      </c>
+      <c r="BA20">
+        <v>1</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="58">
+        <v>2380</v>
+      </c>
+      <c r="D21" s="58">
+        <v>59.500000000000007</v>
+      </c>
+      <c r="E21" s="100">
+        <v>5</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="G21" s="40">
+        <v>700</v>
+      </c>
+      <c r="H21" s="40">
+        <v>701</v>
+      </c>
+      <c r="I21" s="40">
+        <v>702</v>
+      </c>
+      <c r="J21" s="40">
+        <v>915</v>
+      </c>
+      <c r="K21" s="40">
+        <v>916</v>
+      </c>
+      <c r="AF21" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>107272606</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA21">
+        <v>1</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="58">
+        <v>2198</v>
+      </c>
+      <c r="D22" s="58">
+        <v>54.95</v>
+      </c>
+      <c r="E22" s="100">
+        <v>6</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" s="40">
+        <v>901</v>
+      </c>
+      <c r="H22" s="40">
+        <v>902</v>
+      </c>
+      <c r="I22" s="40">
+        <v>903</v>
+      </c>
+      <c r="J22" s="40">
+        <v>904</v>
+      </c>
+      <c r="K22" s="40">
+        <v>905</v>
+      </c>
+      <c r="L22" s="40">
+        <v>907</v>
+      </c>
+      <c r="AF22" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG22">
+        <v>118591255</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK22">
+        <v>114937498</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>262</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>264</v>
+      </c>
+      <c r="BA22">
+        <v>1</v>
+      </c>
+      <c r="BB22">
+        <v>1</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57" ht="15.6">
+      <c r="A23" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="58">
+        <v>168</v>
+      </c>
+      <c r="D23" s="58">
+        <v>4.2</v>
+      </c>
+      <c r="E23" s="100">
+        <v>1</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="G23" s="1">
+        <v>908</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG23">
+        <v>107152390</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK23">
+        <v>107152772</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>290</v>
+      </c>
+      <c r="BA23">
+        <v>1</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="58">
+        <v>3303</v>
+      </c>
+      <c r="D24" s="58">
+        <v>82.575000000000003</v>
+      </c>
+      <c r="E24" s="100">
+        <v>8</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="G24" s="40">
+        <v>3</v>
+      </c>
+      <c r="H24" s="40">
+        <v>100</v>
+      </c>
+      <c r="I24" s="40">
+        <v>101</v>
+      </c>
+      <c r="J24" s="40">
+        <v>102</v>
+      </c>
+      <c r="K24" s="40">
+        <v>103</v>
+      </c>
+      <c r="L24" s="40">
+        <v>104</v>
+      </c>
+      <c r="M24" s="40">
+        <v>105</v>
+      </c>
+      <c r="N24" s="40">
+        <v>106</v>
+      </c>
+      <c r="AF24" s="40">
+        <v>3</v>
+      </c>
+      <c r="AG24">
+        <v>148428799</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK24">
+        <v>107146029</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO24">
+        <v>107153114</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>322</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>323</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>324</v>
+      </c>
+      <c r="BA24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>1</v>
+      </c>
+      <c r="BC24">
+        <v>1</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" ht="15.6">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:57" ht="15.6">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:57" ht="15.6">
+      <c r="D28" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
+  <autoFilter ref="A4:HE4" xr:uid="{241A2B32-3533-4CB6-ADDC-7B4E0FB893D3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:HE24">
+    <sortCondition ref="B5:B24"/>
+    <sortCondition ref="A5:A24"/>
+  </sortState>
+  <conditionalFormatting sqref="AH1:AH1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2">
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS2">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW2">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" fitToWidth="2" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;Z&amp;F</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="37" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD1989D-DDDB-4C3C-8A56-795C5E194EFD}">
+  <dimension ref="A1:GX28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="10" style="40" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" style="65" customWidth="1"/>
+    <col min="7" max="31" width="6.140625" style="40" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="40" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" customWidth="1"/>
+    <col min="36" max="36" width="26" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="12" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="57" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="75" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="87" width="14" bestFit="1" customWidth="1"/>
+    <col min="88" max="95" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="96" max="107" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="108" max="123" width="14" bestFit="1" customWidth="1"/>
+    <col min="124" max="128" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="140" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="141" max="153" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="154" max="159" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="160" max="172" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="173" max="187" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="188" max="206" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:206" ht="15.6">
+      <c r="A1" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="68">
+        <v>2.5000000000000005E-2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>193</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="31"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="4"/>
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4"/>
+      <c r="CM1" s="4"/>
+      <c r="CN1" s="4"/>
+      <c r="CO1" s="4"/>
+      <c r="CP1" s="4"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4"/>
+      <c r="CU1" s="4"/>
+      <c r="CV1" s="4"/>
+      <c r="CW1" s="4"/>
+      <c r="CX1" s="4"/>
+      <c r="CY1" s="4"/>
+      <c r="CZ1" s="4"/>
+      <c r="DA1" s="4"/>
+      <c r="DB1" s="4"/>
+      <c r="DC1" s="4"/>
+      <c r="DD1" s="33"/>
+      <c r="DE1" s="33"/>
+      <c r="DF1" s="33"/>
+      <c r="DG1" s="33"/>
+      <c r="DH1" s="33"/>
+      <c r="DI1" s="33"/>
+      <c r="DJ1" s="33"/>
+      <c r="DK1" s="33"/>
+      <c r="DL1" s="33"/>
+      <c r="DM1" s="33"/>
+      <c r="DN1" s="33"/>
+      <c r="DO1" s="33"/>
+      <c r="DP1" s="33"/>
+      <c r="DQ1" s="33"/>
+      <c r="DR1" s="33"/>
+      <c r="DS1" s="33"/>
+      <c r="DT1" s="34"/>
+      <c r="DU1" s="34"/>
+      <c r="DV1" s="34"/>
+      <c r="DW1" s="34"/>
+      <c r="DX1" s="34"/>
+      <c r="DY1" s="4"/>
+      <c r="DZ1" s="4"/>
+      <c r="EA1" s="4"/>
+      <c r="EB1" s="4"/>
+      <c r="EC1" s="4"/>
+      <c r="ED1" s="4"/>
+      <c r="EE1" s="4"/>
+      <c r="EF1" s="4"/>
+      <c r="EG1" s="4"/>
+      <c r="EH1" s="4"/>
+      <c r="EI1" s="4"/>
+      <c r="EJ1" s="4"/>
+      <c r="EK1" s="4"/>
+      <c r="EL1" s="4"/>
+      <c r="EM1" s="4"/>
+      <c r="EN1" s="4"/>
+      <c r="EO1" s="4"/>
+      <c r="EP1" s="4"/>
+      <c r="EQ1" s="4"/>
+      <c r="ER1" s="4"/>
+      <c r="ES1" s="4"/>
+      <c r="ET1" s="4"/>
+      <c r="EU1" s="4"/>
+      <c r="EV1" s="4"/>
+      <c r="EW1" s="4"/>
+      <c r="EX1" s="4"/>
+      <c r="EY1" s="4"/>
+      <c r="EZ1" s="4"/>
+      <c r="FA1" s="4"/>
+      <c r="FB1" s="4"/>
+      <c r="FC1" s="4"/>
+      <c r="FD1" s="35"/>
+      <c r="FE1" s="35"/>
+      <c r="FF1" s="35"/>
+      <c r="FG1" s="35"/>
+      <c r="FH1" s="35"/>
+      <c r="FI1" s="35"/>
+      <c r="FJ1" s="35"/>
+      <c r="FK1" s="35"/>
+      <c r="FL1" s="35"/>
+      <c r="FM1" s="35"/>
+      <c r="FN1" s="35"/>
+      <c r="FO1" s="35"/>
+      <c r="FP1" s="35"/>
+      <c r="FQ1" s="4"/>
+      <c r="FR1" s="4"/>
+      <c r="FS1" s="4"/>
+      <c r="FT1" s="4"/>
+      <c r="FU1" s="4"/>
+      <c r="FV1" s="4"/>
+      <c r="FW1" s="4"/>
+      <c r="FX1" s="4"/>
+      <c r="FY1" s="4"/>
+      <c r="FZ1" s="4"/>
+      <c r="GA1" s="4"/>
+      <c r="GB1" s="4"/>
+      <c r="GC1" s="4"/>
+      <c r="GD1" s="4"/>
+      <c r="GE1" s="4"/>
+      <c r="GF1" s="36"/>
+      <c r="GG1" s="36"/>
+      <c r="GH1" s="36"/>
+      <c r="GI1" s="36"/>
+      <c r="GJ1" s="36"/>
+      <c r="GK1" s="36"/>
+      <c r="GL1" s="36"/>
+      <c r="GM1" s="36"/>
+      <c r="GN1" s="36"/>
+      <c r="GO1" s="36"/>
+      <c r="GP1" s="36"/>
+      <c r="GQ1" s="36"/>
+      <c r="GR1" s="36"/>
+      <c r="GS1" s="36"/>
+      <c r="GT1" s="36"/>
+      <c r="GU1" s="36"/>
+      <c r="GV1" s="36"/>
+      <c r="GW1" s="36"/>
+      <c r="GX1" s="36"/>
+    </row>
+    <row r="2" spans="1:206" ht="15.6">
+      <c r="A2" s="102">
+        <v>20</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="53">
+        <f>SUM(C5:C24)</f>
+        <v>100005</v>
+      </c>
+      <c r="D2" s="53">
+        <f>SUM(D5:D24)</f>
+        <v>2500.1249999999991</v>
+      </c>
+      <c r="E2" s="53">
+        <f>SUM(E5:E24)</f>
+        <v>193</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="53">
+        <f>(AH2+AL2+AP2+AT2+AX2)</f>
+        <v>50</v>
+      </c>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4">
+        <f>COUNTA(AH5:AH24)-3</f>
+        <v>17</v>
+      </c>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4">
+        <v>17</v>
+      </c>
+      <c r="AL2" s="4">
+        <f>COUNTA(AL5:AL24)</f>
+        <v>17</v>
+      </c>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4">
+        <v>10</v>
+      </c>
+      <c r="AP2" s="4">
+        <f>COUNTA(AP5:AP24)</f>
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4">
+        <v>5</v>
+      </c>
+      <c r="AT2" s="4">
+        <f>COUNTA(AT5:AT24)</f>
+        <v>5</v>
+      </c>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="4">
+        <f>COUNTA(AX5:AX24)</f>
+        <v>1</v>
+      </c>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="4"/>
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="4"/>
+      <c r="CY2" s="4"/>
+      <c r="CZ2" s="4"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="33"/>
+      <c r="DE2" s="33"/>
+      <c r="DF2" s="33"/>
+      <c r="DG2" s="33"/>
+      <c r="DH2" s="33"/>
+      <c r="DI2" s="33"/>
+      <c r="DJ2" s="33"/>
+      <c r="DK2" s="33"/>
+      <c r="DL2" s="33"/>
+      <c r="DM2" s="33"/>
+      <c r="DN2" s="33"/>
+      <c r="DO2" s="33"/>
+      <c r="DP2" s="33"/>
+      <c r="DQ2" s="33"/>
+      <c r="DR2" s="33"/>
+      <c r="DS2" s="33"/>
+      <c r="DT2" s="34"/>
+      <c r="DU2" s="34"/>
+      <c r="DV2" s="34"/>
+      <c r="DW2" s="34"/>
+      <c r="DX2" s="34"/>
+      <c r="DY2" s="4"/>
+      <c r="DZ2" s="4"/>
+      <c r="EA2" s="4"/>
+      <c r="EB2" s="4"/>
+      <c r="EC2" s="4"/>
+      <c r="ED2" s="4"/>
+      <c r="EE2" s="4"/>
+      <c r="EF2" s="4"/>
+      <c r="EG2" s="4"/>
+      <c r="EH2" s="4"/>
+      <c r="EI2" s="4"/>
+      <c r="EJ2" s="4"/>
+      <c r="EK2" s="4"/>
+      <c r="EL2" s="4"/>
+      <c r="EM2" s="4"/>
+      <c r="EN2" s="4"/>
+      <c r="EO2" s="4"/>
+      <c r="EP2" s="4"/>
+      <c r="EQ2" s="4"/>
+      <c r="ER2" s="4"/>
+      <c r="ES2" s="4"/>
+      <c r="ET2" s="4"/>
+      <c r="EU2" s="4"/>
+      <c r="EV2" s="4"/>
+      <c r="EW2" s="4"/>
+      <c r="EX2" s="4"/>
+      <c r="EY2" s="4"/>
+      <c r="EZ2" s="4"/>
+      <c r="FA2" s="4"/>
+      <c r="FB2" s="4"/>
+      <c r="FC2" s="4"/>
+      <c r="FD2" s="35"/>
+      <c r="FE2" s="35"/>
+      <c r="FF2" s="35"/>
+      <c r="FG2" s="35"/>
+      <c r="FH2" s="35"/>
+      <c r="FI2" s="35"/>
+      <c r="FJ2" s="35"/>
+      <c r="FK2" s="35"/>
+      <c r="FL2" s="35"/>
+      <c r="FM2" s="35"/>
+      <c r="FN2" s="35"/>
+      <c r="FO2" s="35"/>
+      <c r="FP2" s="35"/>
+      <c r="FQ2" s="4"/>
+      <c r="FR2" s="4"/>
+      <c r="FS2" s="4"/>
+      <c r="FT2" s="4"/>
+      <c r="FU2" s="4"/>
+      <c r="FV2" s="4"/>
+      <c r="FW2" s="4"/>
+      <c r="FX2" s="4"/>
+      <c r="FY2" s="4"/>
+      <c r="FZ2" s="4"/>
+      <c r="GA2" s="4"/>
+      <c r="GB2" s="4"/>
+      <c r="GC2" s="4"/>
+      <c r="GD2" s="4"/>
+      <c r="GE2" s="4"/>
+      <c r="GF2" s="36"/>
+      <c r="GG2" s="36"/>
+      <c r="GH2" s="36"/>
+      <c r="GI2" s="36"/>
+      <c r="GJ2" s="36"/>
+      <c r="GK2" s="36"/>
+      <c r="GL2" s="36"/>
+      <c r="GM2" s="36"/>
+      <c r="GN2" s="36"/>
+      <c r="GO2" s="36"/>
+      <c r="GP2" s="36"/>
+      <c r="GQ2" s="36"/>
+      <c r="GR2" s="36"/>
+      <c r="GS2" s="36"/>
+      <c r="GT2" s="36"/>
+      <c r="GU2" s="36"/>
+      <c r="GV2" s="36"/>
+      <c r="GW2" s="36"/>
+      <c r="GX2" s="36"/>
+    </row>
+    <row r="3" spans="1:206" ht="15.6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="30">
+        <v>1</v>
+      </c>
+      <c r="H3" s="30">
+        <v>2</v>
+      </c>
+      <c r="I3" s="30">
+        <v>3</v>
+      </c>
+      <c r="J3" s="30">
+        <v>4</v>
+      </c>
+      <c r="K3" s="30">
+        <v>5</v>
+      </c>
+      <c r="L3" s="30">
+        <v>6</v>
+      </c>
+      <c r="M3" s="30">
+        <v>7</v>
+      </c>
+      <c r="N3" s="30">
+        <v>8</v>
+      </c>
+      <c r="O3" s="30">
+        <v>9</v>
+      </c>
+      <c r="P3" s="30">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="30">
+        <v>11</v>
+      </c>
+      <c r="R3" s="30">
+        <v>12</v>
+      </c>
+      <c r="S3" s="30">
+        <v>13</v>
+      </c>
+      <c r="T3" s="30">
+        <v>14</v>
+      </c>
+      <c r="U3" s="30">
+        <v>15</v>
+      </c>
+      <c r="V3" s="30">
+        <v>16</v>
+      </c>
+      <c r="W3" s="30">
+        <v>17</v>
+      </c>
+      <c r="X3" s="30">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="30">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="30">
+        <v>21</v>
+      </c>
+      <c r="AB3" s="30">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="30">
+        <v>23</v>
+      </c>
+      <c r="AD3" s="30">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="30">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="4"/>
+      <c r="CB3" s="4"/>
+      <c r="CC3" s="4"/>
+      <c r="CD3" s="4"/>
+      <c r="CE3" s="4"/>
+      <c r="CF3" s="4"/>
+      <c r="CG3" s="4"/>
+      <c r="CH3" s="4"/>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="4"/>
+      <c r="CM3" s="4"/>
+      <c r="CN3" s="4"/>
+      <c r="CO3" s="4"/>
+      <c r="CP3" s="4"/>
+      <c r="CQ3" s="4"/>
+      <c r="CR3" s="4"/>
+      <c r="CS3" s="4"/>
+      <c r="CT3" s="4"/>
+      <c r="CU3" s="4"/>
+      <c r="CV3" s="4"/>
+      <c r="CW3" s="4"/>
+      <c r="CX3" s="4"/>
+      <c r="CY3" s="4"/>
+      <c r="CZ3" s="4"/>
+      <c r="DA3" s="4"/>
+      <c r="DB3" s="4"/>
+      <c r="DC3" s="4"/>
+      <c r="DD3" s="33"/>
+      <c r="DE3" s="33"/>
+      <c r="DF3" s="33"/>
+      <c r="DG3" s="33"/>
+      <c r="DH3" s="33"/>
+      <c r="DI3" s="33"/>
+      <c r="DJ3" s="33"/>
+      <c r="DK3" s="33"/>
+      <c r="DL3" s="33"/>
+      <c r="DM3" s="33"/>
+      <c r="DN3" s="33"/>
+      <c r="DO3" s="33"/>
+      <c r="DP3" s="33"/>
+      <c r="DQ3" s="33"/>
+      <c r="DR3" s="33"/>
+      <c r="DS3" s="33"/>
+      <c r="DT3" s="34"/>
+      <c r="DU3" s="34"/>
+      <c r="DV3" s="34"/>
+      <c r="DW3" s="34"/>
+      <c r="DX3" s="34"/>
+      <c r="DY3" s="4"/>
+      <c r="DZ3" s="4"/>
+      <c r="EA3" s="4"/>
+      <c r="EB3" s="4"/>
+      <c r="EC3" s="4"/>
+      <c r="ED3" s="4"/>
+      <c r="EE3" s="4"/>
+      <c r="EF3" s="4"/>
+      <c r="EG3" s="4"/>
+      <c r="EH3" s="4"/>
+      <c r="EI3" s="4"/>
+      <c r="EJ3" s="4"/>
+      <c r="EK3" s="4"/>
+      <c r="EL3" s="4"/>
+      <c r="EM3" s="4"/>
+      <c r="EN3" s="4"/>
+      <c r="EO3" s="4"/>
+      <c r="EP3" s="4"/>
+      <c r="EQ3" s="4"/>
+      <c r="ER3" s="4"/>
+      <c r="ES3" s="4"/>
+      <c r="ET3" s="4"/>
+      <c r="EU3" s="4"/>
+      <c r="EV3" s="4"/>
+      <c r="EW3" s="4"/>
+      <c r="EX3" s="4"/>
+      <c r="EY3" s="4"/>
+      <c r="EZ3" s="4"/>
+      <c r="FA3" s="4"/>
+      <c r="FB3" s="4"/>
+      <c r="FC3" s="4"/>
+      <c r="FD3" s="35"/>
+      <c r="FE3" s="35"/>
+      <c r="FF3" s="35"/>
+      <c r="FG3" s="35"/>
+      <c r="FH3" s="35"/>
+      <c r="FI3" s="35"/>
+      <c r="FJ3" s="35"/>
+      <c r="FK3" s="35"/>
+      <c r="FL3" s="35"/>
+      <c r="FM3" s="35"/>
+      <c r="FN3" s="35"/>
+      <c r="FO3" s="35"/>
+      <c r="FP3" s="35"/>
+      <c r="FQ3" s="4"/>
+      <c r="FR3" s="4"/>
+      <c r="FS3" s="4"/>
+      <c r="FT3" s="4"/>
+      <c r="FU3" s="4"/>
+      <c r="FV3" s="4"/>
+      <c r="FW3" s="4"/>
+      <c r="FX3" s="4"/>
+      <c r="FY3" s="4"/>
+      <c r="FZ3" s="4"/>
+      <c r="GA3" s="4"/>
+      <c r="GB3" s="4"/>
+      <c r="GC3" s="4"/>
+      <c r="GD3" s="4"/>
+      <c r="GE3" s="4"/>
+      <c r="GF3" s="36"/>
+      <c r="GG3" s="36"/>
+      <c r="GH3" s="36"/>
+      <c r="GI3" s="36"/>
+      <c r="GJ3" s="36"/>
+      <c r="GK3" s="36"/>
+      <c r="GL3" s="36"/>
+      <c r="GM3" s="36"/>
+      <c r="GN3" s="36"/>
+      <c r="GO3" s="36"/>
+      <c r="GP3" s="36"/>
+      <c r="GQ3" s="36"/>
+      <c r="GR3" s="36"/>
+      <c r="GS3" s="36"/>
+      <c r="GT3" s="36"/>
+      <c r="GU3" s="36"/>
+      <c r="GV3" s="36"/>
+      <c r="GW3" s="36"/>
+      <c r="GX3" s="36"/>
+    </row>
+    <row r="4" spans="1:206" s="41" customFormat="1" ht="46.5">
+      <c r="A4" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF4" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ4" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK4" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL4" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN4" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO4" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR4" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW4" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX4" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ4" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:206" ht="15.6">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="58">
+        <v>8267</v>
+      </c>
+      <c r="D5" s="58">
+        <v>206.67499999999998</v>
+      </c>
+      <c r="E5" s="40">
+        <v>12</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="G5" s="2">
+        <v>810</v>
+      </c>
+      <c r="H5" s="2">
+        <v>817</v>
+      </c>
+      <c r="I5" s="2">
+        <v>818</v>
+      </c>
+      <c r="J5" s="2">
+        <v>820</v>
+      </c>
+      <c r="K5" s="2">
+        <v>821</v>
+      </c>
+      <c r="L5" s="40">
+        <v>822</v>
+      </c>
+      <c r="M5" s="40">
+        <v>823</v>
+      </c>
+      <c r="N5" s="40">
+        <v>824</v>
+      </c>
+      <c r="O5" s="40">
+        <v>825</v>
+      </c>
+      <c r="P5" s="40">
+        <v>826</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>827</v>
+      </c>
+      <c r="R5" s="40">
+        <v>910</v>
+      </c>
+      <c r="AF5" s="40">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="64">
+        <v>107153071</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK5" s="64">
+        <v>118591584</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO5" s="64">
+        <v>147521014</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS5">
+        <v>118591584</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW5" s="64">
+        <v>147521014</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:206">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="58">
+        <v>8884</v>
+      </c>
+      <c r="D6" s="58">
+        <v>222.10000000000002</v>
+      </c>
+      <c r="E6" s="40">
+        <v>13</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="40">
+        <v>803</v>
+      </c>
+      <c r="H6" s="40">
+        <v>804</v>
+      </c>
+      <c r="I6" s="40">
+        <v>805</v>
+      </c>
+      <c r="J6" s="40">
+        <v>806</v>
+      </c>
+      <c r="K6" s="40">
+        <v>807</v>
+      </c>
+      <c r="L6" s="40">
+        <v>811</v>
+      </c>
+      <c r="M6" s="40">
+        <v>812</v>
+      </c>
+      <c r="N6" s="40">
+        <v>813</v>
+      </c>
+      <c r="O6" s="40">
+        <v>814</v>
+      </c>
+      <c r="P6" s="40">
+        <v>815</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>816</v>
+      </c>
+      <c r="R6" s="40">
+        <v>911</v>
+      </c>
+      <c r="S6" s="40">
+        <v>912</v>
+      </c>
+      <c r="AF6" s="40">
+        <v>3</v>
+      </c>
+      <c r="AG6">
+        <v>107153029</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK6">
+        <v>107152549</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6">
+        <v>107152440</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:206" ht="15.6">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="58">
+        <v>5883</v>
+      </c>
+      <c r="D7" s="58">
+        <v>147.07500000000002</v>
+      </c>
+      <c r="E7" s="40">
+        <v>12</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>834</v>
+      </c>
+      <c r="I7" s="2">
+        <v>835</v>
+      </c>
+      <c r="J7" s="2">
+        <v>836</v>
+      </c>
+      <c r="K7" s="2">
+        <v>837</v>
+      </c>
+      <c r="L7" s="2">
+        <v>838</v>
+      </c>
+      <c r="M7" s="2">
+        <v>839</v>
+      </c>
+      <c r="N7" s="2">
+        <v>840</v>
+      </c>
+      <c r="O7" s="2">
+        <v>841</v>
+      </c>
+      <c r="P7" s="2">
+        <v>842</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>848</v>
+      </c>
+      <c r="R7" s="2">
+        <v>849</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="AF7" s="40">
+        <v>4</v>
+      </c>
+      <c r="AG7">
+        <v>142893063</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK7">
+        <v>113627156</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO7">
+        <v>107152229</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS7">
+        <v>107152370</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:206">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="58">
+        <v>3670</v>
+      </c>
+      <c r="D8" s="58">
+        <v>91.750000000000014</v>
+      </c>
+      <c r="E8" s="40">
+        <v>5</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" s="40">
+        <v>828</v>
+      </c>
+      <c r="H8" s="40">
+        <v>829</v>
+      </c>
+      <c r="I8" s="40">
+        <v>831</v>
+      </c>
+      <c r="J8" s="40">
+        <v>832</v>
+      </c>
+      <c r="K8" s="40">
+        <v>833</v>
+      </c>
+      <c r="AF8" s="40">
+        <v>3</v>
+      </c>
+      <c r="AG8">
+        <v>147113970</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK8">
+        <v>107152870</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO8">
+        <v>107152870</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:206" ht="29.1">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="58">
+        <v>9066</v>
+      </c>
+      <c r="D9" s="58">
+        <v>226.65</v>
+      </c>
+      <c r="E9" s="40">
+        <v>16</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="G9" s="40">
+        <v>830</v>
+      </c>
+      <c r="H9" s="40">
+        <v>843</v>
+      </c>
+      <c r="I9" s="40">
+        <v>844</v>
+      </c>
+      <c r="J9" s="40">
+        <v>845</v>
+      </c>
+      <c r="K9" s="40">
+        <v>846</v>
+      </c>
+      <c r="L9" s="40">
+        <v>847</v>
+      </c>
+      <c r="M9" s="40">
+        <v>850</v>
+      </c>
+      <c r="N9" s="40">
+        <v>851</v>
+      </c>
+      <c r="O9" s="40">
+        <v>852</v>
+      </c>
+      <c r="P9" s="40">
+        <v>853</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>854</v>
+      </c>
+      <c r="R9" s="40">
+        <v>855</v>
+      </c>
+      <c r="S9" s="40">
+        <v>856</v>
+      </c>
+      <c r="T9" s="40">
+        <v>857</v>
+      </c>
+      <c r="U9" s="40">
+        <v>900</v>
+      </c>
+      <c r="V9" s="40">
+        <v>906</v>
+      </c>
+      <c r="AF9" s="40">
+        <v>4</v>
+      </c>
+      <c r="AG9">
+        <v>107152873</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK9">
+        <v>107152473</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO9">
+        <v>107152460</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS9">
+        <v>111658833</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>273</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:206">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="58">
+        <v>3936</v>
+      </c>
+      <c r="D10" s="58">
+        <v>98.4</v>
+      </c>
+      <c r="E10" s="40">
+        <v>9</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" s="40">
+        <v>400</v>
+      </c>
+      <c r="H10" s="40">
+        <v>401</v>
+      </c>
+      <c r="I10" s="40">
+        <v>402</v>
+      </c>
+      <c r="J10" s="40">
+        <v>403</v>
+      </c>
+      <c r="K10" s="40">
+        <v>404</v>
+      </c>
+      <c r="L10" s="40">
+        <v>405</v>
+      </c>
+      <c r="M10" s="40">
+        <v>406</v>
+      </c>
+      <c r="N10" s="40">
+        <v>407</v>
+      </c>
+      <c r="O10" s="40">
+        <v>408</v>
+      </c>
+      <c r="AF10" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <v>107152500</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK10">
+        <v>144328289</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>276</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:206" ht="29.1">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="58">
+        <v>8719</v>
+      </c>
+      <c r="D11" s="58">
+        <v>217.97500000000005</v>
+      </c>
+      <c r="E11" s="40">
+        <v>14</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="40">
+        <v>503</v>
+      </c>
+      <c r="H11" s="40">
+        <v>504</v>
+      </c>
+      <c r="I11" s="40">
+        <v>505</v>
+      </c>
+      <c r="J11" s="40">
+        <v>506</v>
+      </c>
+      <c r="K11" s="40">
+        <v>507</v>
+      </c>
+      <c r="L11" s="40">
+        <v>508</v>
+      </c>
+      <c r="M11" s="40">
+        <v>509</v>
+      </c>
+      <c r="N11" s="40">
+        <v>510</v>
+      </c>
+      <c r="O11" s="40">
+        <v>800</v>
+      </c>
+      <c r="P11" s="40">
+        <v>801</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>802</v>
+      </c>
+      <c r="R11" s="40">
+        <v>808</v>
+      </c>
+      <c r="S11" s="40">
+        <v>809</v>
+      </c>
+      <c r="T11" s="40">
+        <v>819</v>
+      </c>
+      <c r="AF11" s="40">
+        <v>4</v>
+      </c>
+      <c r="AG11">
+        <v>107152131</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK11">
+        <v>114937506</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO11">
+        <v>122989657</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS11">
+        <v>107152262</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>318</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>319</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:206" ht="29.1">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="58">
+        <v>11327</v>
+      </c>
+      <c r="D12" s="58">
+        <v>283.17500000000001</v>
+      </c>
+      <c r="E12" s="40">
+        <v>20</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="40">
+        <v>300</v>
+      </c>
+      <c r="H12" s="40">
+        <v>301</v>
+      </c>
+      <c r="I12" s="40">
+        <v>302</v>
+      </c>
+      <c r="J12" s="40">
+        <v>303</v>
+      </c>
+      <c r="K12" s="40">
+        <v>304</v>
+      </c>
+      <c r="L12" s="40">
+        <v>305</v>
+      </c>
+      <c r="M12" s="40">
+        <v>306</v>
+      </c>
+      <c r="N12" s="40">
+        <v>307</v>
+      </c>
+      <c r="O12" s="40">
+        <v>308</v>
+      </c>
+      <c r="P12" s="40">
+        <v>309</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>310</v>
+      </c>
+      <c r="R12" s="40">
+        <v>311</v>
+      </c>
+      <c r="S12" s="40">
+        <v>312</v>
+      </c>
+      <c r="T12" s="40">
+        <v>313</v>
+      </c>
+      <c r="U12" s="40">
+        <v>314</v>
+      </c>
+      <c r="V12" s="40">
+        <v>315</v>
+      </c>
+      <c r="W12" s="40">
+        <v>316</v>
+      </c>
+      <c r="X12" s="40">
+        <v>500</v>
+      </c>
+      <c r="Y12" s="40">
+        <v>501</v>
+      </c>
+      <c r="Z12" s="40">
+        <v>502</v>
+      </c>
+      <c r="AF12" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>107152163</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:206" ht="29.1">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="58">
+        <v>7518</v>
+      </c>
+      <c r="D13" s="58">
+        <v>187.95000000000002</v>
+      </c>
+      <c r="E13" s="40">
+        <v>14</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" s="40">
+        <v>605</v>
+      </c>
+      <c r="H13" s="40">
+        <v>606</v>
+      </c>
+      <c r="I13" s="40">
+        <v>607</v>
+      </c>
+      <c r="J13" s="40">
+        <v>608</v>
+      </c>
+      <c r="K13" s="40">
+        <v>609</v>
+      </c>
+      <c r="L13" s="40">
+        <v>610</v>
+      </c>
+      <c r="M13" s="40">
+        <v>611</v>
+      </c>
+      <c r="N13" s="40">
+        <v>614</v>
+      </c>
+      <c r="O13" s="40">
+        <v>615</v>
+      </c>
+      <c r="P13" s="40">
+        <v>616</v>
+      </c>
+      <c r="Q13" s="40">
+        <v>624</v>
+      </c>
+      <c r="R13" s="40">
+        <v>625</v>
+      </c>
+      <c r="S13" s="40">
+        <v>630</v>
+      </c>
+      <c r="T13" s="40">
+        <v>631</v>
+      </c>
+      <c r="AF13" s="40">
+        <v>3</v>
+      </c>
+      <c r="AG13">
+        <v>107153150</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK13" s="64">
+        <v>107152750</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO13">
+        <v>107152594</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:206">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="58">
+        <v>3351</v>
+      </c>
+      <c r="D14" s="58">
+        <v>83.775000000000006</v>
+      </c>
+      <c r="E14" s="40">
+        <v>7</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="40">
+        <v>600</v>
+      </c>
+      <c r="H14" s="40">
+        <v>601</v>
+      </c>
+      <c r="I14" s="40">
+        <v>602</v>
+      </c>
+      <c r="J14" s="40">
+        <v>603</v>
+      </c>
+      <c r="K14" s="40">
+        <v>604</v>
+      </c>
+      <c r="L14" s="40">
+        <v>612</v>
+      </c>
+      <c r="M14" s="40">
+        <v>613</v>
+      </c>
+      <c r="AF14" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG14">
+        <v>138232649</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK14">
+        <v>111502459</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:206" ht="29.1">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="58">
+        <v>6376</v>
+      </c>
+      <c r="D15" s="58">
+        <v>159.40000000000003</v>
+      </c>
+      <c r="E15" s="40">
+        <v>18</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" s="2">
+        <v>626</v>
+      </c>
+      <c r="H15" s="2">
+        <v>627</v>
+      </c>
+      <c r="I15" s="2">
+        <v>628</v>
+      </c>
+      <c r="J15" s="2">
+        <v>629</v>
+      </c>
+      <c r="K15" s="2">
+        <v>643</v>
+      </c>
+      <c r="L15" s="2">
+        <v>644</v>
+      </c>
+      <c r="M15" s="2">
+        <v>645</v>
+      </c>
+      <c r="N15" s="2">
+        <v>646</v>
+      </c>
+      <c r="O15" s="2">
+        <v>617</v>
+      </c>
+      <c r="P15" s="2">
+        <v>632</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>641</v>
+      </c>
+      <c r="R15" s="2">
+        <v>642</v>
+      </c>
+      <c r="S15" s="2">
+        <v>647</v>
+      </c>
+      <c r="T15" s="2">
+        <v>648</v>
+      </c>
+      <c r="U15" s="2">
+        <v>649</v>
+      </c>
+      <c r="V15" s="2">
+        <v>703</v>
+      </c>
+      <c r="W15" s="2">
+        <v>704</v>
+      </c>
+      <c r="X15" s="2">
+        <v>705</v>
+      </c>
+      <c r="AF15" s="40">
+        <v>4</v>
+      </c>
+      <c r="AG15">
+        <v>137032958</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK15">
+        <v>108682188</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO15">
+        <v>107153112</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS15">
+        <v>107152357</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:206" ht="29.1">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="58">
+        <v>7028</v>
+      </c>
+      <c r="D16" s="58">
+        <v>175.7</v>
+      </c>
+      <c r="E16" s="40">
+        <v>17</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="G16" s="58">
+        <v>2</v>
+      </c>
+      <c r="H16" s="58">
+        <v>618</v>
+      </c>
+      <c r="I16" s="58">
+        <v>619</v>
+      </c>
+      <c r="J16" s="58">
+        <v>620</v>
+      </c>
+      <c r="K16" s="58">
+        <v>621</v>
+      </c>
+      <c r="L16" s="58">
+        <v>622</v>
+      </c>
+      <c r="M16" s="58">
+        <v>623</v>
+      </c>
+      <c r="N16" s="58">
+        <v>633</v>
+      </c>
+      <c r="O16" s="58">
+        <v>634</v>
+      </c>
+      <c r="P16" s="58">
+        <v>635</v>
+      </c>
+      <c r="Q16" s="58">
+        <v>636</v>
+      </c>
+      <c r="R16" s="58">
+        <v>637</v>
+      </c>
+      <c r="S16" s="58">
+        <v>638</v>
+      </c>
+      <c r="T16" s="58">
+        <v>639</v>
+      </c>
+      <c r="U16" s="58">
+        <v>640</v>
+      </c>
+      <c r="V16" s="58">
+        <v>650</v>
+      </c>
+      <c r="W16" s="58">
+        <v>651</v>
+      </c>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="40">
+        <v>3</v>
+      </c>
+      <c r="AG16">
+        <v>107152803</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK16">
+        <v>107152783</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO16">
+        <v>107152290</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="58">
+        <v>7185</v>
+      </c>
+      <c r="D17" s="58">
+        <v>179.62500000000003</v>
+      </c>
+      <c r="E17" s="40">
+        <v>13</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="40">
+        <v>200</v>
+      </c>
+      <c r="H17" s="40">
+        <v>201</v>
+      </c>
+      <c r="I17" s="40">
+        <v>202</v>
+      </c>
+      <c r="J17" s="40">
+        <v>203</v>
+      </c>
+      <c r="K17" s="40">
+        <v>204</v>
+      </c>
+      <c r="L17" s="40">
+        <v>205</v>
+      </c>
+      <c r="M17" s="40">
+        <v>206</v>
+      </c>
+      <c r="N17" s="40">
+        <v>207</v>
+      </c>
+      <c r="O17" s="40">
+        <v>208</v>
+      </c>
+      <c r="P17" s="40">
+        <v>209</v>
+      </c>
+      <c r="Q17" s="40">
+        <v>210</v>
+      </c>
+      <c r="R17" s="40">
+        <v>211</v>
+      </c>
+      <c r="S17" s="40">
+        <v>212</v>
+      </c>
+      <c r="AF17" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <v>107152695</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK17">
+        <v>107152704</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>285</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="58">
+        <v>155</v>
+      </c>
+      <c r="D18" s="58">
+        <v>3.875</v>
+      </c>
+      <c r="E18" s="40">
+        <v>1</v>
+      </c>
+      <c r="F18" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" s="40">
+        <v>914</v>
+      </c>
+      <c r="AF18" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG18">
+        <v>107152390</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK18">
+        <v>111658139</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" ht="15.6">
+      <c r="A19" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="58">
+        <v>308</v>
+      </c>
+      <c r="D19" s="58">
+        <v>7.7</v>
+      </c>
+      <c r="E19" s="40">
+        <v>1</v>
+      </c>
+      <c r="F19" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="40">
+        <v>909</v>
+      </c>
+      <c r="AF19" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>107152390</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="58">
+        <v>283</v>
+      </c>
+      <c r="D20" s="58">
+        <v>7.0750000000000002</v>
+      </c>
+      <c r="E20" s="40">
+        <v>1</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="G20" s="40">
+        <v>913</v>
+      </c>
+      <c r="AF20" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG20">
+        <v>107152390</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK20">
+        <v>122990310</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="58">
+        <v>2380</v>
+      </c>
+      <c r="D21" s="58">
+        <v>59.500000000000007</v>
+      </c>
+      <c r="E21" s="40">
+        <v>5</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="G21" s="40">
+        <v>700</v>
+      </c>
+      <c r="H21" s="40">
+        <v>701</v>
+      </c>
+      <c r="I21" s="40">
+        <v>702</v>
+      </c>
+      <c r="J21" s="40">
+        <v>915</v>
+      </c>
+      <c r="K21" s="40">
+        <v>916</v>
+      </c>
+      <c r="AF21" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>107272606</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="58">
+        <v>2198</v>
+      </c>
+      <c r="D22" s="58">
+        <v>54.95</v>
+      </c>
+      <c r="E22" s="40">
+        <v>6</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" s="40">
+        <v>901</v>
+      </c>
+      <c r="H22" s="40">
+        <v>902</v>
+      </c>
+      <c r="I22" s="40">
+        <v>903</v>
+      </c>
+      <c r="J22" s="40">
+        <v>904</v>
+      </c>
+      <c r="K22" s="40">
+        <v>905</v>
+      </c>
+      <c r="L22" s="40">
+        <v>907</v>
+      </c>
+      <c r="AF22" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG22">
+        <v>118591255</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK22">
+        <v>114937498</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>262</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" ht="15.6">
+      <c r="A23" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="58">
+        <v>168</v>
+      </c>
+      <c r="D23" s="58">
+        <v>4.2</v>
+      </c>
+      <c r="E23" s="40">
+        <v>1</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="G23" s="58">
+        <v>908</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="40">
+        <v>2</v>
+      </c>
+      <c r="AG23">
+        <v>107152390</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK23">
+        <v>107152772</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="58">
+        <v>3303</v>
+      </c>
+      <c r="D24" s="58">
+        <v>82.575000000000003</v>
+      </c>
+      <c r="E24" s="40">
+        <v>8</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="G24" s="40">
+        <v>3</v>
+      </c>
+      <c r="H24" s="40">
+        <v>100</v>
+      </c>
+      <c r="I24" s="40">
+        <v>101</v>
+      </c>
+      <c r="J24" s="40">
+        <v>102</v>
+      </c>
+      <c r="K24" s="40">
+        <v>103</v>
+      </c>
+      <c r="L24" s="40">
+        <v>104</v>
+      </c>
+      <c r="M24" s="40">
+        <v>105</v>
+      </c>
+      <c r="N24" s="40">
+        <v>106</v>
+      </c>
+      <c r="AF24" s="40">
+        <v>3</v>
+      </c>
+      <c r="AG24">
+        <v>148428799</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK24">
+        <v>107146029</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO24">
+        <v>107153114</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>322</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>323</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" ht="15.6">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:44" ht="15.6">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:44" ht="15.6">
+      <c r="D28" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
+  <autoFilter ref="A4:GX4" xr:uid="{4AD1989D-DDDB-4C3C-8A56-795C5E194EFD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:GX24">
+    <sortCondition ref="B5:B24"/>
+    <sortCondition ref="A5:A24"/>
+  </sortState>
+  <conditionalFormatting sqref="AH1:AH1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL2">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP2">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS2">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT2">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW2">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" fitToWidth="2" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;Z&amp;F</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="36" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53770813-600F-4BEE-98BC-D3CF5FBC1A30}">
   <sheetPr>
@@ -19438,7 +25381,7 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A7:HM27" xr:uid="{08EF8CBD-FB93-45EF-A598-1E7EA73DA71E}"/>
   <conditionalFormatting sqref="AG1:AG1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20201,7 +26144,7 @@
     <sortCondition ref="A5:A24"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23617,7 +29560,7 @@
     <sortCondition ref="A5:A24"/>
   </sortState>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27002,19 +32945,19 @@
     <sortCondition ref="A5:A24"/>
   </sortState>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS2">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34552,7 +40495,7 @@
   </sheetPr>
   <dimension ref="A1:HE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -37949,19 +43892,19 @@
     <sortCondition ref="A5:A24"/>
   </sortState>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK2">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37973,15 +43916,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C2D0D0A5FA3644D9A0C30F93E04E252" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e14383865bab702a4abdd88bcbe5d8eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="468cbdd3-d3d3-4e82-8059-0422a0ced137" xmlns:ns3="0dfd8431-8843-419e-a5b8-b962f6af7970" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="890c492f556343f832785214503376d0" ns2:_="" ns3:_="">
     <xsd:import namespace="468cbdd3-d3d3-4e82-8059-0422a0ced137"/>
@@ -38241,6 +44175,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -38275,17 +44218,27 @@
         <AccountId>19</AccountId>
         <AccountType/>
       </UserInfo>
+      <UserInfo>
+        <DisplayName>Timm Bryson</DisplayName>
+        <AccountId>75</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jake Marsing</DisplayName>
+        <AccountId>348</AccountId>
+        <AccountType/>
+      </UserInfo>
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4396EB-EA42-4431-9DEB-436FA8324D12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{149F7C18-9376-42A2-AC37-1D1969914142}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{149F7C18-9376-42A2-AC37-1D1969914142}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD4396EB-EA42-4431-9DEB-436FA8324D12}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
